--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_5_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4013133.952368136</v>
+        <v>4010883.133982243</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836235</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -707,25 +707,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>212.5645992729187</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42.98425264020182</v>
+        <v>155.8860385675338</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>44.90925090849413</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>153.9967102004014</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>25.31590541686252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231289</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>358.5239983301261</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>59.7268375758684</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>139.6528551206849</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>84.69473660442857</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1585,7 +1585,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>251.4434670897026</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1664,10 +1664,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492276</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004737</v>
+        <v>35.19569619650092</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534548</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
@@ -1907,7 +1907,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.75769145492268</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004736</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>57.7686580562839</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.75769145492269</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>203.1897060792155</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.75769145492238</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>64.14647130913956</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,22 +2713,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>18.2687961020394</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>121.4295444840916</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.6898441249706</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>204.1149264341229</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,7 +3187,7 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C34" t="n">
-        <v>138.8504880697912</v>
+        <v>47.3379739444492</v>
       </c>
       <c r="D34" t="n">
         <v>120.2191399893757</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>67.95608738100147</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.53581964121071</v>
+        <v>60.53581964121072</v>
       </c>
       <c r="S34" t="n">
         <v>161.3726923026053</v>
@@ -3253,7 +3253,7 @@
         <v>197.3133223602005</v>
       </c>
       <c r="Y34" t="n">
-        <v>187.2366538150143</v>
+        <v>190.1883203232582</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3427,19 +3427,19 @@
         <v>138.8504880697912</v>
       </c>
       <c r="D37" t="n">
-        <v>59.76566350460996</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>118.0376296177325</v>
+        <v>117.9335065897425</v>
       </c>
       <c r="F37" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>60.53581964121072</v>
       </c>
       <c r="S37" t="n">
         <v>161.3726923026053</v>
@@ -3661,7 +3661,7 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C40" t="n">
-        <v>138.8504880697912</v>
+        <v>66.92981955690844</v>
       </c>
       <c r="D40" t="n">
         <v>120.2191399893757</v>
@@ -3670,7 +3670,7 @@
         <v>118.0376296177325</v>
       </c>
       <c r="F40" t="n">
-        <v>56.57123850933003</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>60.53581964121071</v>
       </c>
       <c r="S40" t="n">
         <v>161.3726923026053</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C43" t="n">
-        <v>138.8504880697912</v>
+        <v>9.588951692823102</v>
       </c>
       <c r="D43" t="n">
         <v>120.2191399893757</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H43" t="n">
-        <v>46.11696110484966</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>67.95608738100145</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.5358196412107</v>
+        <v>60.53581964121069</v>
       </c>
       <c r="S43" t="n">
         <v>161.3726923026053</v>
@@ -3961,7 +3961,7 @@
         <v>258.1266653077544</v>
       </c>
       <c r="X43" t="n">
-        <v>197.3133223602005</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>190.1883203232582</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4135,7 +4135,7 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C46" t="n">
-        <v>138.8504880697912</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>120.2191399893757</v>
@@ -4144,7 +4144,7 @@
         <v>118.0376296177325</v>
       </c>
       <c r="F46" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>137.6294752301916</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>67.95608738100142</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>60.53581964121071</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>161.3726923026053</v>
       </c>
       <c r="T46" t="n">
-        <v>86.48626945398074</v>
+        <v>191.1526162473326</v>
       </c>
       <c r="U46" t="n">
         <v>257.8155051767762</v>
       </c>
       <c r="V46" t="n">
-        <v>223.7413102949914</v>
+        <v>153.0416546217082</v>
       </c>
       <c r="W46" t="n">
         <v>258.1266653077544</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>924.4350995402963</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>555.4725825998845</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>555.4725825998845</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2427.408685111424</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2074.64002984131</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>1701.17427158023</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1311.034939604418</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4422,7 +4422,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.3468541648867</v>
+        <v>211.4036268380754</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1336.435086552838</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C5" t="n">
-        <v>967.4725696124262</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>609.2068710056758</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>223.4186184074316</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4601,16 +4601,16 @@
         <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>2113.174258592771</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1723.03492661696</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>702.55736257324</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D8" t="n">
-        <v>819.715945170047</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718028</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4899,7 +4899,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858881</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.423641878219</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>484.423641878219</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5030,52 +5030,52 @@
         <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
@@ -5084,7 +5084,7 @@
         <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5109,22 +5109,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320241</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>181.1112734427667</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="C13" t="n">
-        <v>181.1112734427667</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D13" t="n">
-        <v>181.1112734427667</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E13" t="n">
-        <v>181.1112734427667</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>181.1112734427667</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
@@ -5218,31 +5218,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1644.746393431758</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.643526557401</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1100.959038351514</v>
+        <v>909.9743422936185</v>
       </c>
       <c r="W13" t="n">
-        <v>811.5418683145539</v>
+        <v>620.5571722566579</v>
       </c>
       <c r="X13" t="n">
-        <v>583.5523174165365</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="Y13" t="n">
-        <v>362.7597382730064</v>
+        <v>392.5676213586405</v>
       </c>
     </row>
     <row r="14">
@@ -5273,46 +5273,46 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>750.1800661608925</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1614.698881814247</v>
+        <v>1676.07730320813</v>
       </c>
       <c r="M14" t="n">
-        <v>2593.249184644076</v>
+        <v>2209.609207880054</v>
       </c>
       <c r="N14" t="n">
-        <v>3573.001456870722</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107238</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
@@ -5331,13 +5331,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E15" t="n">
         <v>487.9678785494859</v>
@@ -5346,13 +5346,13 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839444</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839439</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839435</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839431</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839422</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839422</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839422</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839422</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953298</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1920.79225782541</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689057</v>
+        <v>1729.106373652236</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1507.339758221762</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384227</v>
+        <v>1218.236891347406</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783401</v>
+        <v>963.5524031415189</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413791</v>
+        <v>674.1352331045583</v>
       </c>
       <c r="X16" t="n">
-        <v>391.8664332433617</v>
+        <v>446.145682206541</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.0738540998316</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551633</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
         <v>435.1415336001585</v>
@@ -5510,55 +5510,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232733</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679679</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390118</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839444</v>
+        <v>561.5038042865474</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839439</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839435</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839431</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839425</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839425</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839425</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839425</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953298</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5689,34 +5689,34 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
         <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>909.27315417834</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W19" t="n">
-        <v>619.8559841413789</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X19" t="n">
-        <v>391.8664332433616</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.0738540998315</v>
+        <v>561.5038042865474</v>
       </c>
     </row>
     <row r="20">
@@ -5738,49 +5738,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427193</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2782.232616025902</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3573.001456870723</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.97392775006</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107238</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.03465586292</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604875</v>
@@ -5805,64 +5805,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839461</v>
+        <v>414.6138567886369</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839457</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839452</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5926,7 +5926,7 @@
         <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
         <v>1956.343466104703</v>
@@ -5935,25 +5935,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689057</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258583</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
         <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783398</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413792</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X22" t="n">
-        <v>391.8664332433618</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.0738540998316</v>
+        <v>414.6138567886369</v>
       </c>
     </row>
     <row r="23">
@@ -5963,55 +5963,55 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1617.665844847779</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483405</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542187</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O23" t="n">
-        <v>3517.878731871642</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P23" t="n">
-        <v>4231.233819318588</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q23" t="n">
-        <v>4689.712021827576</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
         <v>4667.761053946815</v>
@@ -6020,19 +6020,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839461</v>
+        <v>307.2453974100822</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839457</v>
+        <v>307.2453974100821</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839452</v>
+        <v>307.2453974100821</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839444</v>
+        <v>307.2453974100821</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839444</v>
+        <v>160.3554499121718</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839444</v>
+        <v>160.3554499121718</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927022</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783397</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413789</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>391.8664332433616</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.0738540998315</v>
+        <v>488.8938622403219</v>
       </c>
     </row>
     <row r="26">
@@ -6209,10 +6209,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
@@ -6221,55 +6221,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972664</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364129</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193958</v>
+        <v>2383.057343890769</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420605</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750059</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107238</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.03465586292</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,73 +6279,73 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973185</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161915</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549404</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494848</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763699</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320235</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.56840828234</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
         <v>1138.808109517387</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>260.9043113423041</v>
+        <v>558.6274977408367</v>
       </c>
       <c r="C28" t="n">
-        <v>242.4509819463048</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="D28" t="n">
-        <v>242.4509819463048</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839444</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839444</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6403,31 +6403,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208122</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838516</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858343</v>
+        <v>681.2836032803232</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423041</v>
+        <v>558.6274977408367</v>
       </c>
     </row>
     <row r="29">
@@ -6455,34 +6455,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750059</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6622,49 +6622,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.670849844206</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.230648292702</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598115</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
         <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501055</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208119</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838514</v>
+        <v>619.8559841413801</v>
       </c>
       <c r="X31" t="n">
-        <v>481.696890485834</v>
+        <v>413.6792907735792</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423039</v>
+        <v>192.8867116300491</v>
       </c>
     </row>
     <row r="32">
@@ -6677,73 +6677,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>3175.513123659585</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750059</v>
+        <v>3678.485594538922</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6777,13 +6777,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390123</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6798,7 +6798,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6807,7 +6807,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
         <v>2043.809373447819</v>
@@ -6816,7 +6816,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282342</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>475.4543102597697</v>
+        <v>472.4728289383117</v>
       </c>
       <c r="C34" t="n">
-        <v>335.2012920074554</v>
+        <v>424.6566936408882</v>
       </c>
       <c r="D34" t="n">
-        <v>213.7678172707122</v>
+        <v>303.223218904145</v>
       </c>
       <c r="E34" t="n">
-        <v>213.7678172707122</v>
+        <v>303.223218904145</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>303.223218904145</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K34" t="n">
-        <v>400.8955892413028</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L34" t="n">
-        <v>745.5677573883471</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M34" t="n">
         <v>1117.837172686444</v>
@@ -6877,7 +6877,7 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q34" t="n">
-        <v>2181.242423693089</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R34" t="n">
         <v>2120.09513112621</v>
@@ -6886,10 +6886,10 @@
         <v>1957.092411628629</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.008960873747</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U34" t="n">
-        <v>1503.589258674983</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V34" t="n">
         <v>1277.587935144689</v>
@@ -6898,10 +6898,10 @@
         <v>1016.853929783321</v>
       </c>
       <c r="X34" t="n">
-        <v>817.547543560896</v>
+        <v>817.5475435608964</v>
       </c>
       <c r="Y34" t="n">
-        <v>628.4196104144169</v>
+        <v>625.4381290929589</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,28 +6935,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>318.2383484401519</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>972.9616805754513</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1837.480496228806</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2816.030799058634</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O35" t="n">
-        <v>3517.878731871643</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P35" t="n">
-        <v>4231.233819318589</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q35" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7035,7 +7035,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7044,16 +7044,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>533.6201215051915</v>
+        <v>472.4728289383115</v>
       </c>
       <c r="C37" t="n">
-        <v>393.3671032528771</v>
+        <v>332.2198106859972</v>
       </c>
       <c r="D37" t="n">
-        <v>332.9977461775128</v>
+        <v>332.2198106859972</v>
       </c>
       <c r="E37" t="n">
-        <v>213.7678172707122</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>213.0950565549441</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7093,13 +7093,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K37" t="n">
-        <v>400.8955892413029</v>
+        <v>400.8955892413028</v>
       </c>
       <c r="L37" t="n">
-        <v>745.5677573883472</v>
+        <v>745.5677573883471</v>
       </c>
       <c r="M37" t="n">
         <v>1117.837172686444</v>
@@ -7111,34 +7111,34 @@
         <v>1814.799887709819</v>
       </c>
       <c r="P37" t="n">
-        <v>2075.519757842027</v>
+        <v>2075.519757842026</v>
       </c>
       <c r="Q37" t="n">
-        <v>2181.24242369309</v>
+        <v>2181.242423693089</v>
       </c>
       <c r="R37" t="n">
-        <v>2181.24242369309</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S37" t="n">
-        <v>2018.239704195508</v>
+        <v>1957.092411628628</v>
       </c>
       <c r="T37" t="n">
-        <v>1825.156253440627</v>
+        <v>1764.008960873747</v>
       </c>
       <c r="U37" t="n">
-        <v>1564.736551241863</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V37" t="n">
-        <v>1338.735227711569</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W37" t="n">
-        <v>1078.001222350201</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X37" t="n">
-        <v>878.6948361277762</v>
+        <v>817.5475435608962</v>
       </c>
       <c r="Y37" t="n">
-        <v>686.5854216598386</v>
+        <v>625.4381290929587</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
@@ -7172,52 +7172,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1586.925993846824</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2120.457898518748</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2667.236715577531</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906985</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>533.6201215051922</v>
+        <v>472.4728289383117</v>
       </c>
       <c r="C40" t="n">
-        <v>393.3671032528778</v>
+        <v>404.8669505980002</v>
       </c>
       <c r="D40" t="n">
-        <v>271.9336285161346</v>
+        <v>283.4334758612571</v>
       </c>
       <c r="E40" t="n">
-        <v>152.7036996093339</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7333,16 +7333,16 @@
         <v>168.7960365938783</v>
       </c>
       <c r="K40" t="n">
-        <v>400.8955892413031</v>
+        <v>400.895589241303</v>
       </c>
       <c r="L40" t="n">
-        <v>745.5677573883474</v>
+        <v>745.5677573883473</v>
       </c>
       <c r="M40" t="n">
         <v>1117.837172686445</v>
       </c>
       <c r="N40" t="n">
-        <v>1487.357919090858</v>
+        <v>1487.357919090857</v>
       </c>
       <c r="O40" t="n">
         <v>1814.799887709819</v>
@@ -7354,28 +7354,28 @@
         <v>2181.24242369309</v>
       </c>
       <c r="R40" t="n">
-        <v>2181.24242369309</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S40" t="n">
-        <v>2018.239704195509</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T40" t="n">
-        <v>1825.156253440628</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U40" t="n">
-        <v>1564.736551241864</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V40" t="n">
-        <v>1338.73522771157</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W40" t="n">
-        <v>1078.001222350202</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X40" t="n">
-        <v>878.6948361277769</v>
+        <v>817.5475435608964</v>
       </c>
       <c r="Y40" t="n">
-        <v>686.5854216598393</v>
+        <v>625.4381290929589</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>379.616769834034</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>1034.340101969334</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089897</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468572</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
@@ -7491,13 +7491,13 @@
         <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
         <v>1715.000032008795</v>
@@ -7509,7 +7509,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7518,7 +7518,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
         <v>2043.809373447819</v>
@@ -7527,13 +7527,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>472.4728289383117</v>
+        <v>671.779215160737</v>
       </c>
       <c r="C43" t="n">
-        <v>332.2198106859973</v>
+        <v>662.0934053700065</v>
       </c>
       <c r="D43" t="n">
-        <v>210.7863359492544</v>
+        <v>540.6599306332633</v>
       </c>
       <c r="E43" t="n">
-        <v>210.7863359492544</v>
+        <v>421.4300017264628</v>
       </c>
       <c r="F43" t="n">
-        <v>210.7863359492544</v>
+        <v>303.223218904145</v>
       </c>
       <c r="G43" t="n">
-        <v>210.7863359492544</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="H43" t="n">
         <v>164.2035469544565</v>
@@ -7567,19 +7567,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>168.7960365938783</v>
+        <v>168.7960365938782</v>
       </c>
       <c r="K43" t="n">
-        <v>400.895589241303</v>
+        <v>400.8955892413031</v>
       </c>
       <c r="L43" t="n">
-        <v>745.5677573883473</v>
+        <v>745.5677573883474</v>
       </c>
       <c r="M43" t="n">
         <v>1117.837172686445</v>
       </c>
       <c r="N43" t="n">
-        <v>1487.357919090857</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O43" t="n">
         <v>1814.799887709819</v>
@@ -7588,31 +7588,31 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q43" t="n">
-        <v>2181.242423693089</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R43" t="n">
-        <v>2120.09513112621</v>
+        <v>2120.095131126211</v>
       </c>
       <c r="S43" t="n">
-        <v>1957.092411628628</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T43" t="n">
-        <v>1764.008960873747</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U43" t="n">
-        <v>1503.589258674983</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V43" t="n">
-        <v>1277.587935144689</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W43" t="n">
-        <v>1016.853929783321</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X43" t="n">
-        <v>817.5475435608964</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="Y43" t="n">
-        <v>625.4381290929589</v>
+        <v>824.7445153153841</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811482</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542189</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P44" t="n">
         <v>4195.497197679678</v>
@@ -7701,52 +7701,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
         <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7755,22 +7755,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.3464236223208</v>
+        <v>543.8866225476888</v>
       </c>
       <c r="C46" t="n">
-        <v>662.0934053700065</v>
+        <v>543.8866225476888</v>
       </c>
       <c r="D46" t="n">
-        <v>540.6599306332633</v>
+        <v>422.4531478109456</v>
       </c>
       <c r="E46" t="n">
-        <v>421.4300017264628</v>
+        <v>303.223218904145</v>
       </c>
       <c r="F46" t="n">
         <v>303.223218904145</v>
@@ -7807,49 +7807,49 @@
         <v>168.7960365938783</v>
       </c>
       <c r="K46" t="n">
-        <v>400.8955892413031</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L46" t="n">
-        <v>745.5677573883476</v>
+        <v>745.5677573883474</v>
       </c>
       <c r="M46" t="n">
         <v>1117.837172686445</v>
       </c>
       <c r="N46" t="n">
-        <v>1487.357919090858</v>
+        <v>1487.357919090857</v>
       </c>
       <c r="O46" t="n">
-        <v>1814.79988770982</v>
+        <v>1814.799887709819</v>
       </c>
       <c r="P46" t="n">
-        <v>2075.519757842028</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q46" t="n">
-        <v>2181.242423693091</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R46" t="n">
-        <v>2181.242423693091</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S46" t="n">
-        <v>2181.242423693091</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T46" t="n">
-        <v>2093.882555557756</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U46" t="n">
-        <v>1833.462853358993</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V46" t="n">
-        <v>1607.461529828698</v>
+        <v>1349.001728754066</v>
       </c>
       <c r="W46" t="n">
-        <v>1346.72752446733</v>
+        <v>1088.267723392698</v>
       </c>
       <c r="X46" t="n">
-        <v>1147.421138244905</v>
+        <v>888.9613371702735</v>
       </c>
       <c r="Y46" t="n">
-        <v>955.3117237769679</v>
+        <v>696.851922702336</v>
       </c>
     </row>
   </sheetData>
@@ -8070,10 +8070,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476847</v>
+        <v>96.13798426930725</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8927,13 +8927,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>133.2530576400263</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>288.7672650676782</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8942,13 +8942,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,19 +9164,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>219.3344627260162</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9410,7 +9410,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>246.454569480847</v>
+        <v>358.2849913921049</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,28 +9638,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>384.814589375506</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>29.618822257921</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,22 +9878,22 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>170.1140909277314</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>370.451600472953</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>172.4995987156013</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.253057640027</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>201.9664098701135</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>123.471956347048</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>34.13957882094149</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>29.61882225792094</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>29.61882225792135</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>67.53663776704269</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>96.13798426930725</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11294,25 +11294,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>329.4296048068269</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476826</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>81.33107165459965</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.694176234125365</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270145</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>53.73645647354641</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.0742887270146</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>160.8159952958109</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270146</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983815</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>15.39494727287928</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.0742887270149</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>80.60854360518123</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>148.9780249965884</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>97.15510886800321</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696673</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>21.59472895491427</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>91.51251412534201</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>118.0376296177325</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G34" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3586818854841</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I34" t="n">
-        <v>67.95608738100148</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.951666508243847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>60.45347648476576</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.1041230279900134</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G37" t="n">
         <v>137.6294752301916</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3586818854841</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>67.95608738100145</v>
+        <v>67.95608738100148</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.53581964121069</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>71.92066851288276</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>60.45347648476459</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G40" t="n">
         <v>137.6294752301916</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3586818854841</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I40" t="n">
-        <v>67.95608738100145</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.5358196412107</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>129.2615363769681</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>118.0376296177325</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>117.0247149940946</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>70.24172078063448</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,13 +26032,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3586818854841</v>
+        <v>116.3586818854842</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.53581964121065</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>161.3726923026052</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>104.6663467933518</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>70.69965567328319</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>632832.3480643339</v>
+        <v>632832.3480643338</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>632832.3480643338</v>
+        <v>632832.3480643339</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
-        <v>774309.4844296172</v>
+        <v>774309.4844296175</v>
       </c>
       <c r="F2" t="n">
         <v>774309.4844296175</v>
       </c>
       <c r="G2" t="n">
-        <v>774309.4844296176</v>
+        <v>774309.4844296174</v>
       </c>
       <c r="H2" t="n">
+        <v>774309.4844296173</v>
+      </c>
+      <c r="I2" t="n">
+        <v>774309.4844296172</v>
+      </c>
+      <c r="J2" t="n">
+        <v>774309.4844296172</v>
+      </c>
+      <c r="K2" t="n">
         <v>774309.4844296169</v>
       </c>
-      <c r="I2" t="n">
-        <v>774309.4844296171</v>
-      </c>
-      <c r="J2" t="n">
-        <v>774309.4844296173</v>
-      </c>
-      <c r="K2" t="n">
-        <v>774309.4844296171</v>
-      </c>
       <c r="L2" t="n">
+        <v>790151.0807671058</v>
+      </c>
+      <c r="M2" t="n">
+        <v>790151.080767106</v>
+      </c>
+      <c r="N2" t="n">
         <v>790151.0807671057</v>
-      </c>
-      <c r="M2" t="n">
-        <v>790151.0807671056</v>
-      </c>
-      <c r="N2" t="n">
-        <v>790151.0807671053</v>
       </c>
       <c r="O2" t="n">
         <v>790151.0807671063</v>
       </c>
       <c r="P2" t="n">
-        <v>790151.080767106</v>
+        <v>790151.0807671058</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925932</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>22717.0664230693</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.314838945</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
@@ -26424,31 +26424,31 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918989</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="H4" t="n">
-        <v>18148.49231918997</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="J4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="J4" t="n">
-        <v>18148.49231918988</v>
-      </c>
       <c r="K4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
-        <v>27492.30103190631</v>
+        <v>27492.30103190629</v>
       </c>
       <c r="M4" t="n">
-        <v>27492.3010319063</v>
+        <v>27492.30103190629</v>
       </c>
       <c r="N4" t="n">
         <v>27492.3010319063</v>
@@ -26457,7 +26457,7 @@
         <v>27492.30103190627</v>
       </c>
       <c r="P4" t="n">
-        <v>27492.30103190628</v>
+        <v>27492.30103190629</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26473,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371366</v>
@@ -26491,10 +26491,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
         <v>98770.76957511491</v>
@@ -26509,7 +26509,7 @@
         <v>98770.76957511491</v>
       </c>
       <c r="P5" t="n">
-        <v>98770.76957511493</v>
+        <v>98770.76957511491</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-55659.91851740543</v>
+        <v>-55659.91851740569</v>
       </c>
       <c r="C6" t="n">
-        <v>534307.960697139</v>
+        <v>534307.9606971388</v>
       </c>
       <c r="D6" t="n">
-        <v>534307.9606971387</v>
+        <v>534307.9606971388</v>
       </c>
       <c r="E6" t="n">
-        <v>-67599.9401366932</v>
+        <v>-67667.13562691842</v>
       </c>
       <c r="F6" t="n">
-        <v>659777.4738567141</v>
+        <v>659710.2783664882</v>
       </c>
       <c r="G6" t="n">
-        <v>659777.4738567141</v>
+        <v>659710.2783664881</v>
       </c>
       <c r="H6" t="n">
-        <v>659777.4738567135</v>
+        <v>659710.2783664879</v>
       </c>
       <c r="I6" t="n">
-        <v>659777.4738567135</v>
+        <v>659710.2783664878</v>
       </c>
       <c r="J6" t="n">
-        <v>483354.2546641207</v>
+        <v>483287.0591738949</v>
       </c>
       <c r="K6" t="n">
-        <v>659777.4738567135</v>
+        <v>659710.2783664876</v>
       </c>
       <c r="L6" t="n">
-        <v>641170.9437370151</v>
+        <v>641144.3677245779</v>
       </c>
       <c r="M6" t="n">
-        <v>534245.6953211394</v>
+        <v>534219.1193087028</v>
       </c>
       <c r="N6" t="n">
-        <v>663888.0101600841</v>
+        <v>663861.434147647</v>
       </c>
       <c r="O6" t="n">
-        <v>663888.010160085</v>
+        <v>663861.4341476477</v>
       </c>
       <c r="P6" t="n">
-        <v>663888.0101600845</v>
+        <v>663861.4341476472</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M2" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N2" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O2" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P2" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,25 +26981,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>115.1876591972162</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.8477275417355</v>
+        <v>23.94594161440352</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>320.3636408625134</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>252.87933554131</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>83.12091415361562</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>193.2687479352323</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858258</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>11.20710234834291</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28053,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>146.6290191212928</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="C34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="D34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="E34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="F34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="G34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="H34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="I34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="J34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="K34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="L34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="R34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="S34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="T34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="U34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="V34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="W34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="X34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="C37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="D37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="E37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="F37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="G37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="H37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="I37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="J37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="K37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="L37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="R37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="S37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="T37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="U37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="V37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="W37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="X37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="C40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="D40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="E40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="F40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="G40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="H40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="I40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="J40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="K40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="L40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="R40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="S40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="T40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="U40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="V40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="X40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="C43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="D43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="E43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="F43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="G43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="H43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="I43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="J43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="K43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="L43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="R43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="S43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="T43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="U43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="V43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="G46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="H46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="I46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="J46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="K46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="L46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="M46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="N46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="O46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="R46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="S46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="T46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="U46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="V46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39633302883663</v>
+        <v>28.39633302883662</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32093,7 +32093,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837912</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34790,10 +34790,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35422,7 +35422,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359038</v>
+        <v>604.1909851575264</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
@@ -35647,13 +35647,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>470.4443441954268</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>744.3573794600104</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248956</v>
@@ -35662,13 +35662,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35805,7 +35805,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789361</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,19 +35884,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>771.6362981389277</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359038</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908545</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597715</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -36042,7 +36042,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36051,10 +36051,10 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>798.7564048937583</v>
+        <v>910.5868268050164</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306615</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N22" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>840.4047037678382</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306615</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,22 +36598,22 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7042053200636</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>909.3727163031798</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36753,7 +36753,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>711.4207145458281</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.306058528246</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37002,13 +37002,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>740.88752570034</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>522.2339425664198</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597767</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.97474964190283</v>
+        <v>73.97474964190285</v>
       </c>
       <c r="K34" t="n">
         <v>234.4439925731562</v>
@@ -37236,13 +37236,13 @@
         <v>376.0297124223204</v>
       </c>
       <c r="N34" t="n">
-        <v>373.2532791963766</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O34" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P34" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q34" t="n">
         <v>106.7905715667303</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>224.926579789654</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>89.23202080014572</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.97474964190289</v>
+        <v>73.97474964190282</v>
       </c>
       <c r="K37" t="n">
         <v>234.4439925731562</v>
@@ -37470,16 +37470,16 @@
         <v>348.1537051990347</v>
       </c>
       <c r="M37" t="n">
-        <v>376.0297124223205</v>
+        <v>376.0297124223204</v>
       </c>
       <c r="N37" t="n">
-        <v>373.2532791963768</v>
+        <v>373.2532791963766</v>
       </c>
       <c r="O37" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P37" t="n">
-        <v>263.3534041739471</v>
+        <v>263.353404173947</v>
       </c>
       <c r="Q37" t="n">
         <v>106.7905715667303</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>485.2089366502535</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>466.2986239864146</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.97474964190289</v>
+        <v>73.97474964190287</v>
       </c>
       <c r="K40" t="n">
         <v>234.4439925731562</v>
@@ -37710,7 +37710,7 @@
         <v>376.0297124223205</v>
       </c>
       <c r="N40" t="n">
-        <v>373.2532791963768</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O40" t="n">
         <v>330.7494632514764</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>286.9249852380198</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
@@ -37792,7 +37792,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.97474964190289</v>
+        <v>73.97474964190285</v>
       </c>
       <c r="K43" t="n">
         <v>234.4439925731562</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>881.7314402197384</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.306104600458</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.97474964190292</v>
+        <v>73.97474964190287</v>
       </c>
       <c r="K46" t="n">
-        <v>234.4439925731563</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L46" t="n">
         <v>348.1537051990348</v>
       </c>
       <c r="M46" t="n">
-        <v>376.0297124223206</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N46" t="n">
-        <v>373.2532791963769</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O46" t="n">
-        <v>330.7494632514765</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P46" t="n">
         <v>263.3534041739471</v>
